--- a/EA Code/GKAH_EA_V1/GKAH_EA_V1/Book1.xlsx
+++ b/EA Code/GKAH_EA_V1/GKAH_EA_V1/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdeni\Documents\GitHub\Apiary\EA Code\GKAH_EA_V1\GKAH_EA_V1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780951BD-C515-4955-9956-FD4D78C73613}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393B6BCF-198B-4299-ACCF-AA614790E0CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="2280" windowWidth="11655" windowHeight="5895" xr2:uid="{35F5E10E-8D1D-403E-B7A8-82A2456C11B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{35F5E10E-8D1D-403E-B7A8-82A2456C11B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
   <dimension ref="P1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:Y2"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,16 +415,17 @@
   <sheetData>
     <row r="1" spans="19:27" x14ac:dyDescent="0.25">
       <c r="S1">
-        <f>X2+Y2</f>
+        <f>Y2+Z2</f>
         <v>0</v>
       </c>
       <c r="T1" s="6" t="e">
-        <f>X2/S1</f>
+        <f>Y2/S1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U1" s="2"/>
-      <c r="X1" s="3"/>
+      <c r="X1" s="1"/>
       <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="19:27" x14ac:dyDescent="0.25">
@@ -449,14 +450,17 @@
         <v>0</v>
       </c>
       <c r="X2" s="3">
+        <f>10000*(J2-O2)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="3">
         <f>SUM(T2:T1000)</f>
         <v>0</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <f>SUM(U:U)</f>
         <v>0</v>
       </c>
-      <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
   </sheetData>

--- a/EA Code/GKAH_EA_V1/GKAH_EA_V1/Book1.xlsx
+++ b/EA Code/GKAH_EA_V1/GKAH_EA_V1/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdeni\Documents\GitHub\Apiary\EA Code\GKAH_EA_V1\GKAH_EA_V1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393B6BCF-198B-4299-ACCF-AA614790E0CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51778AA-BFE2-4609-8693-279FBA2E5E01}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{35F5E10E-8D1D-403E-B7A8-82A2456C11B7}"/>
   </bookViews>
@@ -74,7 +74,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -82,6 +82,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -398,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF67AFB-D190-453C-BCBE-4522A599031C}">
-  <dimension ref="P1:AA2"/>
+  <dimension ref="P1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="S1" sqref="S1:AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,7 +414,7 @@
     <col min="23" max="23" width="11.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="19:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="19:28" x14ac:dyDescent="0.25">
       <c r="S1">
         <f>Y2+Z2</f>
         <v>0</v>
@@ -426,9 +427,16 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="1"/>
+      <c r="AA1" s="7" t="e">
+        <f>AVERAGE(AA2:AA1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB1" s="7" t="e">
+        <f>AVERAGE(AB2:AB1000)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="2" spans="19:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="19:28" x14ac:dyDescent="0.25">
       <c r="S2" s="1">
         <f>SUM(V:V)+SUM(W:W)</f>
         <v>0</v>
@@ -461,7 +469,14 @@
         <f>SUM(U:U)</f>
         <v>0</v>
       </c>
-      <c r="AA2" s="1"/>
+      <c r="AA2" s="7" t="str">
+        <f>IF(X2&gt;0,X2,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="AB2" s="7" t="str">
+        <f>IF(X2&lt;0,X2,"-")</f>
+        <v>-</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
